--- a/dotGraph.xlsx
+++ b/dotGraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owen\Documents\GitHub\AI-ANN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CB4D8D-2B2E-4641-9D6A-3FCF0C3D38A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E7132-693D-4A71-BC30-B5888FEE9BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,23 +200,9 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1143,877 +1129,877 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="291"/>
                 <c:pt idx="0">
-                  <c:v>30.058119000000001</c:v>
+                  <c:v>48.221131999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.21509</c:v>
+                  <c:v>45.010848000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.671126999999998</c:v>
+                  <c:v>48.148865999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.122775000000001</c:v>
+                  <c:v>40.223911000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.518315000000001</c:v>
+                  <c:v>39.090868999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.874199000000001</c:v>
+                  <c:v>39.239386000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.090094000000001</c:v>
+                  <c:v>37.947600999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.770823</c:v>
+                  <c:v>44.091434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.990708999999999</c:v>
+                  <c:v>39.752806</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.848761</c:v>
+                  <c:v>38.662860000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.230955000000002</c:v>
+                  <c:v>38.925378000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.099826</c:v>
+                  <c:v>37.842174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.396599999999999</c:v>
+                  <c:v>36.820489000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.974553</c:v>
+                  <c:v>36.411605000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.069800000000001</c:v>
+                  <c:v>36.424334000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.733688999999998</c:v>
+                  <c:v>36.588335999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.707446000000001</c:v>
+                  <c:v>36.658154000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.860393</c:v>
+                  <c:v>36.195782000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.654401</c:v>
+                  <c:v>36.103071999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.470357</c:v>
+                  <c:v>35.854070999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.374663000000002</c:v>
+                  <c:v>36.961438000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.148833</c:v>
+                  <c:v>39.931849999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.439196000000001</c:v>
+                  <c:v>35.713732999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.191927</c:v>
+                  <c:v>40.089339000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.154211</c:v>
+                  <c:v>37.159998000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.960923999999999</c:v>
+                  <c:v>37.632900999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.167328999999999</c:v>
+                  <c:v>36.739172000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.498336</c:v>
+                  <c:v>35.942776000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.170482</c:v>
+                  <c:v>35.541088999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.109666000000001</c:v>
+                  <c:v>35.467604000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.103194</c:v>
+                  <c:v>35.461841</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.955173</c:v>
+                  <c:v>35.306722999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.790131000000001</c:v>
+                  <c:v>35.096724000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.610730999999999</c:v>
+                  <c:v>34.860726999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.53234</c:v>
+                  <c:v>34.816343000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.446142</c:v>
+                  <c:v>34.771828999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.478175999999999</c:v>
+                  <c:v>34.812634000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14.659390999999999</c:v>
+                  <c:v>35.280611999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.693500999999999</c:v>
+                  <c:v>35.360976999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14.553003</c:v>
+                  <c:v>34.795152000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15.214736</c:v>
+                  <c:v>35.465955000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16.879525999999998</c:v>
+                  <c:v>37.249355999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14.521528</c:v>
+                  <c:v>34.777285999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.016322000000001</c:v>
+                  <c:v>35.520353</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.695902</c:v>
+                  <c:v>35.096297999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>16.638597000000001</c:v>
+                  <c:v>35.459381</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.562256</c:v>
+                  <c:v>34.826267999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>16.418337999999999</c:v>
+                  <c:v>35.460593000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>16.792113000000001</c:v>
+                  <c:v>36.145688</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15.560952</c:v>
+                  <c:v>35.565707000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14.757482</c:v>
+                  <c:v>35.055436</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18.818646999999999</c:v>
+                  <c:v>37.547460999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.238244000000002</c:v>
+                  <c:v>44.60707</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16.306825</c:v>
+                  <c:v>37.016989000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>15.64798</c:v>
+                  <c:v>36.126708999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17.242746</c:v>
+                  <c:v>37.602530000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14.664436</c:v>
+                  <c:v>34.992289999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>15.497847999999999</c:v>
+                  <c:v>36.182958999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>14.604934</c:v>
+                  <c:v>35.177405</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>14.318978</c:v>
+                  <c:v>34.618667000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14.466742</c:v>
+                  <c:v>34.604557</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14.195506</c:v>
+                  <c:v>34.473737999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>14.133654</c:v>
+                  <c:v>34.408586</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>14.054620999999999</c:v>
+                  <c:v>34.319524000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>15.613479</c:v>
+                  <c:v>36.021351000000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14.123457999999999</c:v>
+                  <c:v>34.313164</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14.105338</c:v>
+                  <c:v>34.40934</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>14.023317</c:v>
+                  <c:v>34.297215999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.029849</c:v>
+                  <c:v>34.522914999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>13.792149999999999</c:v>
+                  <c:v>33.992109999999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>13.814639</c:v>
+                  <c:v>34.035196999999997</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>13.825258</c:v>
+                  <c:v>34.040359000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>13.816176</c:v>
+                  <c:v>34.036994</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>13.819931</c:v>
+                  <c:v>34.047929000000003</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13.795508999999999</c:v>
+                  <c:v>34.012967000000003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>13.735777000000001</c:v>
+                  <c:v>33.918261000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>13.709650999999999</c:v>
+                  <c:v>33.882280000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17.887232000000001</c:v>
+                  <c:v>39.64349</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.84398</c:v>
+                  <c:v>33.934724000000003</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>13.76695</c:v>
+                  <c:v>33.965794000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.714426</c:v>
+                  <c:v>33.900796</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13.710758</c:v>
+                  <c:v>33.942188000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13.637718</c:v>
+                  <c:v>33.793968999999997</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>13.670265000000001</c:v>
+                  <c:v>33.858688000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13.685992000000001</c:v>
+                  <c:v>33.876967999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13.663221</c:v>
+                  <c:v>33.843926000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.630763</c:v>
+                  <c:v>33.805700000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.633022</c:v>
+                  <c:v>33.826996999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>14.084474999999999</c:v>
+                  <c:v>34.268704999999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>15.716077</c:v>
+                  <c:v>37.497047999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.810769000000001</c:v>
+                  <c:v>33.798172999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.696693</c:v>
+                  <c:v>35.4009</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.794734999999999</c:v>
+                  <c:v>35.266502000000003</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>13.756225000000001</c:v>
+                  <c:v>33.944114999999996</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.447851</c:v>
+                  <c:v>34.808951999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>13.777199</c:v>
+                  <c:v>33.991610000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>13.799987</c:v>
+                  <c:v>34.014546000000003</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>13.893711</c:v>
+                  <c:v>34.154978999999997</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>16.465978</c:v>
+                  <c:v>36.522388999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>20.642045</c:v>
+                  <c:v>37.875537999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>14.235035</c:v>
+                  <c:v>34.717677999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>14.364455</c:v>
+                  <c:v>34.522376999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>14.886359000000001</c:v>
+                  <c:v>34.981850000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>47.209834000000001</c:v>
+                  <c:v>49.177805999999997</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>31.334395000000001</c:v>
+                  <c:v>42.630510999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>30.616958</c:v>
+                  <c:v>41.646472000000003</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>29.416855000000002</c:v>
+                  <c:v>46.922494999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>42.350397000000001</c:v>
+                  <c:v>44.488118</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>19.905808</c:v>
+                  <c:v>40.214970000000001</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>17.355812</c:v>
+                  <c:v>38.378757999999998</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>15.87205</c:v>
+                  <c:v>36.370254000000003</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>15.296887</c:v>
+                  <c:v>35.770733</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>14.937642</c:v>
+                  <c:v>35.376621999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>16.622786000000001</c:v>
+                  <c:v>36.793866999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>15.267984999999999</c:v>
+                  <c:v>35.448787000000003</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>14.674576999999999</c:v>
+                  <c:v>35.034438000000002</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>14.487057</c:v>
+                  <c:v>34.835835000000003</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>14.396571</c:v>
+                  <c:v>34.736558000000002</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>14.730378999999999</c:v>
+                  <c:v>35.101210999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>16.754971999999999</c:v>
+                  <c:v>36.653607999999998</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>32.339326</c:v>
+                  <c:v>46.855691999999998</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>22.872769000000002</c:v>
+                  <c:v>44.279961</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>22.200403000000001</c:v>
+                  <c:v>43.305872000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>24.637426000000001</c:v>
+                  <c:v>46.328422000000003</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>17.742018999999999</c:v>
+                  <c:v>38.957873999999997</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15.926892</c:v>
+                  <c:v>36.517251000000002</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>17.527177999999999</c:v>
+                  <c:v>38.865802000000002</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>19.081810999999998</c:v>
+                  <c:v>38.906543999999997</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18.000412000000001</c:v>
+                  <c:v>37.796802</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>27.767747</c:v>
+                  <c:v>45.30236</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>33.099713999999999</c:v>
+                  <c:v>49.778106999999999</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>30.097535000000001</c:v>
+                  <c:v>51.517387999999997</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>62.680579000000002</c:v>
+                  <c:v>68.742957000000004</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>48.033889000000002</c:v>
+                  <c:v>65.943427</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>24.589378</c:v>
+                  <c:v>44.760184000000002</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>20.343598</c:v>
+                  <c:v>40.917422999999999</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>17.079781000000001</c:v>
+                  <c:v>37.635119000000003</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>16.311254999999999</c:v>
+                  <c:v>37.003504999999997</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>15.94478</c:v>
+                  <c:v>36.660243000000001</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>15.352247</c:v>
+                  <c:v>35.816930999999997</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>15.189757999999999</c:v>
+                  <c:v>35.651110000000003</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>16.508329</c:v>
+                  <c:v>37.060870999999999</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>15.068680000000001</c:v>
+                  <c:v>35.41442</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>28.373267999999999</c:v>
+                  <c:v>45.06991</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>19.212078000000002</c:v>
+                  <c:v>39.951363000000001</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>18.802403000000002</c:v>
+                  <c:v>40.544052999999998</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>17.181678999999999</c:v>
+                  <c:v>37.828771000000003</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>16.426054000000001</c:v>
+                  <c:v>37.096761000000001</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>17.206742999999999</c:v>
+                  <c:v>37.227283999999997</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>15.472419</c:v>
+                  <c:v>35.920589999999997</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>20.213607</c:v>
+                  <c:v>39.186276999999997</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>18.792280999999999</c:v>
+                  <c:v>39.945735999999997</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>22.217236</c:v>
+                  <c:v>44.318263999999999</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>19.163105000000002</c:v>
+                  <c:v>40.644491000000002</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>17.022409</c:v>
+                  <c:v>37.776972999999998</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>16.281095000000001</c:v>
+                  <c:v>36.994905000000003</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>15.743688000000001</c:v>
+                  <c:v>36.366224000000003</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>17.935112</c:v>
+                  <c:v>37.332890999999996</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>15.156741</c:v>
+                  <c:v>35.600717000000003</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>14.983714000000001</c:v>
+                  <c:v>35.416809000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>14.859143</c:v>
+                  <c:v>35.271951999999999</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>14.696298000000001</c:v>
+                  <c:v>35.076780999999997</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>14.604498</c:v>
+                  <c:v>34.972887999999998</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>14.735386</c:v>
+                  <c:v>34.94538</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>15.981406</c:v>
+                  <c:v>35.228124999999999</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>17.475708000000001</c:v>
+                  <c:v>35.733058</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>15.872622</c:v>
+                  <c:v>35.366830999999998</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>21.198896999999999</c:v>
+                  <c:v>37.466096</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>49.116664</c:v>
+                  <c:v>47.385845000000003</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>50.054895000000002</c:v>
+                  <c:v>66.105253000000005</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>26.948329000000001</c:v>
+                  <c:v>46.971499999999999</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>20.642552999999999</c:v>
+                  <c:v>40.816246999999997</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>56.938355000000001</c:v>
+                  <c:v>51.422756</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>106.712918</c:v>
+                  <c:v>100.484819</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>51.425097999999998</c:v>
+                  <c:v>66.121297999999996</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>25.435780999999999</c:v>
+                  <c:v>45.570487999999997</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>20.431488999999999</c:v>
+                  <c:v>41.168222999999998</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>18.992622999999998</c:v>
+                  <c:v>39.770088000000001</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>25.894487000000002</c:v>
+                  <c:v>42.447209000000001</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>22.314302000000001</c:v>
+                  <c:v>42.390293</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>24.571836000000001</c:v>
+                  <c:v>43.731372999999998</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>74.565076000000005</c:v>
+                  <c:v>68.478391999999999</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>63.318607999999998</c:v>
+                  <c:v>86.096029000000001</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>37.523229000000001</c:v>
+                  <c:v>54.252800000000001</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>29.063148999999999</c:v>
+                  <c:v>47.842506</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>24.212510999999999</c:v>
+                  <c:v>44.677999999999997</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>21.776001999999998</c:v>
+                  <c:v>42.499043999999998</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>20.421855000000001</c:v>
+                  <c:v>41.139722999999996</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>19.388248000000001</c:v>
+                  <c:v>40.176741999999997</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>19.382878000000002</c:v>
+                  <c:v>39.889935999999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>40.177036999999999</c:v>
+                  <c:v>48.450811999999999</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>42.390137000000003</c:v>
+                  <c:v>53.178980000000003</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>29.586482</c:v>
+                  <c:v>47.944871999999997</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>32.822153</c:v>
+                  <c:v>47.079645999999997</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>26.200419</c:v>
+                  <c:v>45.173982000000002</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>24.927012000000001</c:v>
+                  <c:v>43.849463999999998</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>23.957704</c:v>
+                  <c:v>44.947482999999998</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>24.690732000000001</c:v>
+                  <c:v>44.751268000000003</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>28.612728000000001</c:v>
+                  <c:v>48.562963000000003</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>22.755281</c:v>
+                  <c:v>43.166899000000001</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>22.766876</c:v>
+                  <c:v>41.993403999999998</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>23.086162999999999</c:v>
+                  <c:v>41.885694000000001</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>20.299423999999998</c:v>
+                  <c:v>40.925930999999999</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>19.721883999999999</c:v>
+                  <c:v>40.227930999999998</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>19.209903000000001</c:v>
+                  <c:v>39.881247000000002</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>18.717841</c:v>
+                  <c:v>39.328076000000003</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>19.075751</c:v>
+                  <c:v>39.063082000000001</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>17.890563</c:v>
+                  <c:v>38.438327999999998</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>18.104814000000001</c:v>
+                  <c:v>38.403841999999997</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>111.06427600000001</c:v>
+                  <c:v>81.429806999999997</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>90.604282999999995</c:v>
+                  <c:v>98.804135000000002</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>49.026992</c:v>
+                  <c:v>63.838752999999997</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>30.196202</c:v>
+                  <c:v>48.938994000000001</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>22.864225000000001</c:v>
+                  <c:v>42.941209999999998</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>20.570868999999998</c:v>
+                  <c:v>40.966262999999998</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>19.085861000000001</c:v>
+                  <c:v>39.414673000000001</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>19.158090000000001</c:v>
+                  <c:v>39.535600000000002</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>18.667255999999998</c:v>
+                  <c:v>39.073608</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>20.625440000000001</c:v>
+                  <c:v>40.102696000000002</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>25.875995</c:v>
+                  <c:v>44.607579000000001</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>22.09881</c:v>
+                  <c:v>41.711170000000003</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>22.094884</c:v>
+                  <c:v>42.051369000000001</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>34.437112999999997</c:v>
+                  <c:v>51.241179000000002</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>54.759273</c:v>
+                  <c:v>66.194816000000003</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>64.775615999999999</c:v>
+                  <c:v>74.273633000000004</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>106.124076</c:v>
+                  <c:v>100.48225100000001</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>129.565619</c:v>
+                  <c:v>135.51945799999999</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>104.76808699999999</c:v>
+                  <c:v>124.775246</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>68.299036999999998</c:v>
+                  <c:v>79.219370999999995</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>62.722107000000001</c:v>
+                  <c:v>65.576750000000004</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>68.075366000000002</c:v>
+                  <c:v>73.037042</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>129.08335500000001</c:v>
+                  <c:v>127.243791</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>79.906823000000003</c:v>
+                  <c:v>98.354769000000005</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>50.098587999999999</c:v>
+                  <c:v>62.629700999999997</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>39.018250999999999</c:v>
+                  <c:v>53.954655000000002</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>33.089421000000002</c:v>
+                  <c:v>50.073306000000002</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>27.298566000000001</c:v>
+                  <c:v>46.526896000000001</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>25.217237000000001</c:v>
+                  <c:v>44.809570999999998</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>25.929822000000001</c:v>
+                  <c:v>45.317680000000003</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>24.176335999999999</c:v>
+                  <c:v>43.856673999999998</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>23.781780000000001</c:v>
+                  <c:v>43.471448000000002</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>22.269815999999999</c:v>
+                  <c:v>42.253985999999998</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>21.235496000000001</c:v>
+                  <c:v>41.374943000000002</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>20.269074</c:v>
+                  <c:v>40.526065000000003</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>20.832409999999999</c:v>
+                  <c:v>40.040365999999999</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>22.412541999999998</c:v>
+                  <c:v>40.189101999999998</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>19.325652000000002</c:v>
+                  <c:v>39.518112000000002</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>19.312556000000001</c:v>
+                  <c:v>39.623603000000003</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>19.302864</c:v>
+                  <c:v>39.570489999999999</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>20.303100000000001</c:v>
+                  <c:v>40.448540000000001</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>20.896766</c:v>
+                  <c:v>40.961053</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>21.198114</c:v>
+                  <c:v>41.032361000000002</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>23.986953</c:v>
+                  <c:v>41.962448999999999</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>23.564564000000001</c:v>
+                  <c:v>42.993172999999999</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>22.019902999999999</c:v>
+                  <c:v>42.047353000000001</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>21.518484000000001</c:v>
+                  <c:v>41.050652999999997</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>19.669502999999999</c:v>
+                  <c:v>39.840794000000002</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>20.190342000000001</c:v>
+                  <c:v>40.739525999999998</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>101.61994900000001</c:v>
+                  <c:v>91.402851999999996</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>150.234104</c:v>
+                  <c:v>179.411216</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>225.538768</c:v>
+                  <c:v>255.41434599999999</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>179.04957899999999</c:v>
+                  <c:v>221.55559099999999</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>119.173433</c:v>
+                  <c:v>158.78882400000001</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>87.756079</c:v>
+                  <c:v>101.928183</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>119.095572</c:v>
+                  <c:v>134.27680599999999</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>106.139612</c:v>
+                  <c:v>123.901718</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>142.60197400000001</c:v>
+                  <c:v>148.620521</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>90.816824999999994</c:v>
+                  <c:v>99.833399999999997</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>62.425024999999998</c:v>
+                  <c:v>67.867666999999997</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>50.986230999999997</c:v>
+                  <c:v>59.291947</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>53.555540000000001</c:v>
+                  <c:v>60.247053999999999</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>66.070330999999996</c:v>
+                  <c:v>70.573212999999996</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>94.282112999999995</c:v>
+                  <c:v>97.452027000000001</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>92.377126000000004</c:v>
+                  <c:v>101.702015</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>62.911983999999997</c:v>
+                  <c:v>72.556576000000007</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>49.850915000000001</c:v>
+                  <c:v>60.947263</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>42.664718999999998</c:v>
+                  <c:v>56.045209999999997</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>37.780208999999999</c:v>
+                  <c:v>52.545628999999998</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>36.393645999999997</c:v>
+                  <c:v>51.878399000000002</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>37.912224999999999</c:v>
+                  <c:v>53.473981000000002</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>41.626148999999998</c:v>
+                  <c:v>57.100938999999997</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>41.324983000000003</c:v>
+                  <c:v>58.361815999999997</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>35.161458000000003</c:v>
+                  <c:v>53.391725000000001</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>29.782506999999999</c:v>
+                  <c:v>48.491463000000003</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>27.552154000000002</c:v>
+                  <c:v>46.852310000000003</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>26.870443000000002</c:v>
+                  <c:v>45.878822</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>28.828199000000001</c:v>
+                  <c:v>46.657274000000001</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>23.707328</c:v>
+                  <c:v>43.521611999999998</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>34.713963999999997</c:v>
+                  <c:v>50.014873999999999</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>27.455069000000002</c:v>
+                  <c:v>45.072240000000001</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>25.361727999999999</c:v>
+                  <c:v>44.880192000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,7 +2007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AF88-4204-BBA0-6EA532C2DA56}"/>
+              <c16:uniqueId val="{00000000-7B27-48BB-99D8-C0CE93F663FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2033,11 +2019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="911652752"/>
-        <c:axId val="911654832"/>
+        <c:axId val="44930640"/>
+        <c:axId val="44929808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="911652752"/>
+        <c:axId val="44930640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,12 +2080,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911654832"/>
+        <c:crossAx val="44929808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="911654832"/>
+        <c:axId val="44929808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911652752"/>
+        <c:crossAx val="44930640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2788,7 +2774,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B554B64B-1DF8-4CA6-838C-D593DCAF4AE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E9784B-906A-4DCB-B668-AABAC4568FDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3083,7 @@
   <dimension ref="A1:B292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3115,7 +3101,7 @@
         <v>16.489999999999998</v>
       </c>
       <c r="B2">
-        <v>30.058119000000001</v>
+        <v>48.221131999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3123,7 +3109,7 @@
         <v>21.29</v>
       </c>
       <c r="B3">
-        <v>30.21509</v>
+        <v>45.010848000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3131,7 +3117,7 @@
         <v>18.77</v>
       </c>
       <c r="B4">
-        <v>28.671126999999998</v>
+        <v>48.148865999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3139,7 +3125,7 @@
         <v>17.059999999999999</v>
       </c>
       <c r="B5">
-        <v>20.122775000000001</v>
+        <v>40.223911000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3147,7 +3133,7 @@
         <v>14.69</v>
       </c>
       <c r="B6">
-        <v>18.518315000000001</v>
+        <v>39.090868999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3155,7 +3141,7 @@
         <v>13.33</v>
       </c>
       <c r="B7">
-        <v>18.874199000000001</v>
+        <v>39.239386000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3163,7 +3149,7 @@
         <v>12.12</v>
       </c>
       <c r="B8">
-        <v>18.090094000000001</v>
+        <v>37.947600999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3171,7 +3157,7 @@
         <v>12.06</v>
       </c>
       <c r="B9">
-        <v>23.770823</v>
+        <v>44.091434</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3179,7 +3165,7 @@
         <v>14.73</v>
       </c>
       <c r="B10">
-        <v>22.990708999999999</v>
+        <v>39.752806</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3187,7 +3173,7 @@
         <v>13.59</v>
       </c>
       <c r="B11">
-        <v>17.848761</v>
+        <v>38.662860000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3195,7 +3181,7 @@
         <v>12.16</v>
       </c>
       <c r="B12">
-        <v>18.230955000000002</v>
+        <v>38.925378000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3203,7 +3189,7 @@
         <v>11.54</v>
       </c>
       <c r="B13">
-        <v>18.099826</v>
+        <v>37.842174</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3211,7 +3197,7 @@
         <v>10.68</v>
       </c>
       <c r="B14">
-        <v>16.396599999999999</v>
+        <v>36.820489000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3219,7 +3205,7 @@
         <v>10.16</v>
       </c>
       <c r="B15">
-        <v>15.974553</v>
+        <v>36.411605000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3227,7 +3213,7 @@
         <v>10.48</v>
       </c>
       <c r="B16">
-        <v>16.069800000000001</v>
+        <v>36.424334000000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3235,7 +3221,7 @@
         <v>10.31</v>
       </c>
       <c r="B17">
-        <v>16.733688999999998</v>
+        <v>36.588335999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3243,7 +3229,7 @@
         <v>10.09</v>
       </c>
       <c r="B18">
-        <v>16.707446000000001</v>
+        <v>36.658154000000003</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3251,7 +3237,7 @@
         <v>9.7089999999999996</v>
       </c>
       <c r="B19">
-        <v>15.860393</v>
+        <v>36.195782000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3259,7 +3245,7 @@
         <v>9.3279999999999994</v>
       </c>
       <c r="B20">
-        <v>15.654401</v>
+        <v>36.103071999999997</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3267,7 +3253,7 @@
         <v>8.9529999999999994</v>
       </c>
       <c r="B21">
-        <v>15.470357</v>
+        <v>35.854070999999998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3275,7 +3261,7 @@
         <v>9.0060000000000002</v>
       </c>
       <c r="B22">
-        <v>17.374663000000002</v>
+        <v>36.961438000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3283,7 +3269,7 @@
         <v>8.9619999999999997</v>
       </c>
       <c r="B23">
-        <v>19.148833</v>
+        <v>39.931849999999997</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3291,7 +3277,7 @@
         <v>8.9380000000000006</v>
       </c>
       <c r="B24">
-        <v>15.439196000000001</v>
+        <v>35.713732999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3299,7 +3285,7 @@
         <v>8.5939999999999994</v>
       </c>
       <c r="B25">
-        <v>20.191927</v>
+        <v>40.089339000000002</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3307,7 +3293,7 @@
         <v>12.8</v>
       </c>
       <c r="B26">
-        <v>17.154211</v>
+        <v>37.159998000000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -3315,7 +3301,7 @@
         <v>11.43</v>
       </c>
       <c r="B27">
-        <v>16.960923999999999</v>
+        <v>37.632900999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -3323,7 +3309,7 @@
         <v>9.5220000000000002</v>
       </c>
       <c r="B28">
-        <v>16.167328999999999</v>
+        <v>36.739172000000003</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -3331,7 +3317,7 @@
         <v>8.4540000000000006</v>
       </c>
       <c r="B29">
-        <v>15.498336</v>
+        <v>35.942776000000002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -3339,7 +3325,7 @@
         <v>8.2210000000000001</v>
       </c>
       <c r="B30">
-        <v>15.170482</v>
+        <v>35.541088999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -3347,7 +3333,7 @@
         <v>8.2360000000000007</v>
       </c>
       <c r="B31">
-        <v>15.109666000000001</v>
+        <v>35.467604000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -3355,7 +3341,7 @@
         <v>7.8949999999999996</v>
       </c>
       <c r="B32">
-        <v>15.103194</v>
+        <v>35.461841</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -3363,7 +3349,7 @@
         <v>7.2969999999999997</v>
       </c>
       <c r="B33">
-        <v>14.955173</v>
+        <v>35.306722999999998</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3371,7 +3357,7 @@
         <v>6.5960000000000001</v>
       </c>
       <c r="B34">
-        <v>14.790131000000001</v>
+        <v>35.096724000000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3379,7 +3365,7 @@
         <v>6.59</v>
       </c>
       <c r="B35">
-        <v>14.610730999999999</v>
+        <v>34.860726999999997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -3387,7 +3373,7 @@
         <v>6.5170000000000003</v>
       </c>
       <c r="B36">
-        <v>14.53234</v>
+        <v>34.816343000000003</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3395,7 +3381,7 @@
         <v>6.6219999999999999</v>
       </c>
       <c r="B37">
-        <v>14.446142</v>
+        <v>34.771828999999997</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -3403,7 +3389,7 @@
         <v>6.516</v>
       </c>
       <c r="B38">
-        <v>14.478175999999999</v>
+        <v>34.812634000000003</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -3411,7 +3397,7 @@
         <v>6.4859999999999998</v>
       </c>
       <c r="B39">
-        <v>14.659390999999999</v>
+        <v>35.280611999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3419,7 +3405,7 @@
         <v>6.4809999999999999</v>
       </c>
       <c r="B40">
-        <v>14.693500999999999</v>
+        <v>35.360976999999998</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3427,7 +3413,7 @@
         <v>6.4340000000000002</v>
       </c>
       <c r="B41">
-        <v>14.553003</v>
+        <v>34.795152000000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -3435,7 +3421,7 @@
         <v>6.2530000000000001</v>
       </c>
       <c r="B42">
-        <v>15.214736</v>
+        <v>35.465955000000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -3443,7 +3429,7 @@
         <v>6.1550000000000002</v>
       </c>
       <c r="B43">
-        <v>16.879525999999998</v>
+        <v>37.249355999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -3451,7 +3437,7 @@
         <v>8.0879999999999992</v>
       </c>
       <c r="B44">
-        <v>14.521528</v>
+        <v>34.777285999999997</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -3459,7 +3445,7 @@
         <v>7.2859999999999996</v>
       </c>
       <c r="B45">
-        <v>15.016322000000001</v>
+        <v>35.520353</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -3467,7 +3453,7 @@
         <v>6.4379999999999997</v>
       </c>
       <c r="B46">
-        <v>14.695902</v>
+        <v>35.096297999999997</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -3475,7 +3461,7 @@
         <v>6.4960000000000004</v>
       </c>
       <c r="B47">
-        <v>16.638597000000001</v>
+        <v>35.459381</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -3483,7 +3469,7 @@
         <v>6.782</v>
       </c>
       <c r="B48">
-        <v>14.562256</v>
+        <v>34.826267999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -3491,7 +3477,7 @@
         <v>8.6829999999999998</v>
       </c>
       <c r="B49">
-        <v>16.418337999999999</v>
+        <v>35.460593000000003</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -3499,7 +3485,7 @@
         <v>8.0909999999999993</v>
       </c>
       <c r="B50">
-        <v>16.792113000000001</v>
+        <v>36.145688</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -3507,7 +3493,7 @@
         <v>7.0209999999999999</v>
       </c>
       <c r="B51">
-        <v>15.560952</v>
+        <v>35.565707000000003</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -3515,7 +3501,7 @@
         <v>6.6870000000000003</v>
       </c>
       <c r="B52">
-        <v>14.757482</v>
+        <v>35.055436</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -3523,7 +3509,7 @@
         <v>7.742</v>
       </c>
       <c r="B53">
-        <v>18.818646999999999</v>
+        <v>37.547460999999998</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -3531,7 +3517,7 @@
         <v>9.9909999999999997</v>
       </c>
       <c r="B54">
-        <v>19.238244000000002</v>
+        <v>44.60707</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -3539,7 +3525,7 @@
         <v>9.0329999999999995</v>
       </c>
       <c r="B55">
-        <v>16.306825</v>
+        <v>37.016989000000002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -3547,7 +3533,7 @@
         <v>7.94</v>
       </c>
       <c r="B56">
-        <v>15.64798</v>
+        <v>36.126708999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -3555,7 +3541,7 @@
         <v>7.0880000000000001</v>
       </c>
       <c r="B57">
-        <v>17.242746</v>
+        <v>37.602530000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -3563,7 +3549,7 @@
         <v>6.7069999999999999</v>
       </c>
       <c r="B58">
-        <v>14.664436</v>
+        <v>34.992289999999997</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -3571,7 +3557,7 @@
         <v>6.3769999999999998</v>
       </c>
       <c r="B59">
-        <v>15.497847999999999</v>
+        <v>36.182958999999997</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -3579,7 +3565,7 @@
         <v>5.9509999999999996</v>
       </c>
       <c r="B60">
-        <v>14.604934</v>
+        <v>35.177405</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -3587,7 +3573,7 @@
         <v>5.6189999999999998</v>
       </c>
       <c r="B61">
-        <v>14.318978</v>
+        <v>34.618667000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -3595,7 +3581,7 @@
         <v>5.5410000000000004</v>
       </c>
       <c r="B62">
-        <v>14.466742</v>
+        <v>34.604557</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3603,7 +3589,7 @@
         <v>5.4059999999999997</v>
       </c>
       <c r="B63">
-        <v>14.195506</v>
+        <v>34.473737999999997</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3611,7 +3597,7 @@
         <v>5.2869999999999999</v>
       </c>
       <c r="B64">
-        <v>14.133654</v>
+        <v>34.408586</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3619,7 +3605,7 @@
         <v>5.2009999999999996</v>
       </c>
       <c r="B65">
-        <v>14.054620999999999</v>
+        <v>34.319524000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3627,7 +3613,7 @@
         <v>5.0460000000000003</v>
       </c>
       <c r="B66">
-        <v>15.613479</v>
+        <v>36.021351000000003</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3635,7 +3621,7 @@
         <v>5.4909999999999997</v>
       </c>
       <c r="B67">
-        <v>14.123457999999999</v>
+        <v>34.313164</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3643,7 +3629,7 @@
         <v>5.234</v>
       </c>
       <c r="B68">
-        <v>14.105338</v>
+        <v>34.40934</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3651,7 +3637,7 @@
         <v>4.8140000000000001</v>
       </c>
       <c r="B69">
-        <v>14.023317</v>
+        <v>34.297215999999999</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3659,7 +3645,7 @@
         <v>4.4329999999999998</v>
       </c>
       <c r="B70">
-        <v>14.029849</v>
+        <v>34.522914999999998</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3667,7 +3653,7 @@
         <v>4.5780000000000003</v>
       </c>
       <c r="B71">
-        <v>13.792149999999999</v>
+        <v>33.992109999999997</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3675,7 +3661,7 @@
         <v>4.6050000000000004</v>
       </c>
       <c r="B72">
-        <v>13.814639</v>
+        <v>34.035196999999997</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3683,7 +3669,7 @@
         <v>4.5960000000000001</v>
       </c>
       <c r="B73">
-        <v>13.825258</v>
+        <v>34.040359000000002</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3691,7 +3677,7 @@
         <v>4.6959999999999997</v>
       </c>
       <c r="B74">
-        <v>13.816176</v>
+        <v>34.036994</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3699,7 +3685,7 @@
         <v>4.5810000000000004</v>
       </c>
       <c r="B75">
-        <v>13.819931</v>
+        <v>34.047929000000003</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3707,7 +3693,7 @@
         <v>4.2590000000000003</v>
       </c>
       <c r="B76">
-        <v>13.795508999999999</v>
+        <v>34.012967000000003</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3715,7 +3701,7 @@
         <v>4.1449999999999996</v>
       </c>
       <c r="B77">
-        <v>13.735777000000001</v>
+        <v>33.918261000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3723,7 +3709,7 @@
         <v>4.1509999999999998</v>
       </c>
       <c r="B78">
-        <v>13.709650999999999</v>
+        <v>33.882280000000002</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3731,7 +3717,7 @@
         <v>4.4470000000000001</v>
       </c>
       <c r="B79">
-        <v>17.887232000000001</v>
+        <v>39.64349</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3739,7 +3725,7 @@
         <v>4.3810000000000002</v>
       </c>
       <c r="B80">
-        <v>13.84398</v>
+        <v>33.934724000000003</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3747,7 +3733,7 @@
         <v>4.202</v>
       </c>
       <c r="B81">
-        <v>13.76695</v>
+        <v>33.965794000000002</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3755,7 +3741,7 @@
         <v>4.0750000000000002</v>
       </c>
       <c r="B82">
-        <v>13.714426</v>
+        <v>33.900796</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3763,7 +3749,7 @@
         <v>3.8580000000000001</v>
       </c>
       <c r="B83">
-        <v>13.710758</v>
+        <v>33.942188000000002</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3771,7 +3757,7 @@
         <v>4.1210000000000004</v>
       </c>
       <c r="B84">
-        <v>13.637718</v>
+        <v>33.793968999999997</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3779,7 +3765,7 @@
         <v>4.1749999999999998</v>
       </c>
       <c r="B85">
-        <v>13.670265000000001</v>
+        <v>33.858688000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3787,7 +3773,7 @@
         <v>4.0110000000000001</v>
       </c>
       <c r="B86">
-        <v>13.685992000000001</v>
+        <v>33.876967999999998</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3795,7 +3781,7 @@
         <v>3.9649999999999999</v>
       </c>
       <c r="B87">
-        <v>13.663221</v>
+        <v>33.843926000000003</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3803,7 +3789,7 @@
         <v>4.1379999999999999</v>
       </c>
       <c r="B88">
-        <v>13.630763</v>
+        <v>33.805700000000002</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3811,7 +3797,7 @@
         <v>3.694</v>
       </c>
       <c r="B89">
-        <v>13.633022</v>
+        <v>33.826996999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3819,7 +3805,7 @@
         <v>3.7570000000000001</v>
       </c>
       <c r="B90">
-        <v>14.084474999999999</v>
+        <v>34.268704999999997</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3827,7 +3813,7 @@
         <v>3.7480000000000002</v>
       </c>
       <c r="B91">
-        <v>15.716077</v>
+        <v>37.497047999999999</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3835,7 +3821,7 @@
         <v>4.2450000000000001</v>
       </c>
       <c r="B92">
-        <v>13.810769000000001</v>
+        <v>33.798172999999998</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3843,7 +3829,7 @@
         <v>4.55</v>
       </c>
       <c r="B93">
-        <v>14.696693</v>
+        <v>35.4009</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3851,7 +3837,7 @@
         <v>4.548</v>
       </c>
       <c r="B94">
-        <v>14.794734999999999</v>
+        <v>35.266502000000003</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3859,7 +3845,7 @@
         <v>4.4290000000000003</v>
       </c>
       <c r="B95">
-        <v>13.756225000000001</v>
+        <v>33.944114999999996</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3867,7 +3853,7 @@
         <v>4.6210000000000004</v>
       </c>
       <c r="B96">
-        <v>14.447851</v>
+        <v>34.808951999999998</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3875,7 +3861,7 @@
         <v>4.633</v>
       </c>
       <c r="B97">
-        <v>13.777199</v>
+        <v>33.991610000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3883,7 +3869,7 @@
         <v>4.6870000000000003</v>
       </c>
       <c r="B98">
-        <v>13.799987</v>
+        <v>34.014546000000003</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3891,7 +3877,7 @@
         <v>4.7720000000000002</v>
       </c>
       <c r="B99">
-        <v>13.893711</v>
+        <v>34.154978999999997</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3899,7 +3885,7 @@
         <v>4.9359999999999999</v>
       </c>
       <c r="B100">
-        <v>16.465978</v>
+        <v>36.522388999999997</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -3907,7 +3893,7 @@
         <v>5.218</v>
       </c>
       <c r="B101">
-        <v>20.642045</v>
+        <v>37.875537999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -3915,7 +3901,7 @@
         <v>5.3410000000000002</v>
       </c>
       <c r="B102">
-        <v>14.235035</v>
+        <v>34.717677999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -3923,7 +3909,7 @@
         <v>5.2530000000000001</v>
       </c>
       <c r="B103">
-        <v>14.364455</v>
+        <v>34.522376999999999</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -3931,7 +3917,7 @@
         <v>8.9179999999999993</v>
       </c>
       <c r="B104">
-        <v>14.886359000000001</v>
+        <v>34.981850000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -3939,7 +3925,7 @@
         <v>22.79</v>
       </c>
       <c r="B105">
-        <v>47.209834000000001</v>
+        <v>49.177805999999997</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -3947,7 +3933,7 @@
         <v>20.010000000000002</v>
       </c>
       <c r="B106">
-        <v>31.334395000000001</v>
+        <v>42.630510999999998</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -3955,7 +3941,7 @@
         <v>11.31</v>
       </c>
       <c r="B107">
-        <v>30.616958</v>
+        <v>41.646472000000003</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -3963,7 +3949,7 @@
         <v>15.12</v>
       </c>
       <c r="B108">
-        <v>29.416855000000002</v>
+        <v>46.922494999999998</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -3971,7 +3957,7 @@
         <v>18.72</v>
       </c>
       <c r="B109">
-        <v>42.350397000000001</v>
+        <v>44.488118</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -3979,7 +3965,7 @@
         <v>14.16</v>
       </c>
       <c r="B110">
-        <v>19.905808</v>
+        <v>40.214970000000001</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -3987,7 +3973,7 @@
         <v>10.98</v>
       </c>
       <c r="B111">
-        <v>17.355812</v>
+        <v>38.378757999999998</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -3995,7 +3981,7 @@
         <v>9.3309999999999995</v>
       </c>
       <c r="B112">
-        <v>15.87205</v>
+        <v>36.370254000000003</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -4003,7 +3989,7 @@
         <v>8.33</v>
       </c>
       <c r="B113">
-        <v>15.296887</v>
+        <v>35.770733</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4011,7 +3997,7 @@
         <v>7.6059999999999999</v>
       </c>
       <c r="B114">
-        <v>14.937642</v>
+        <v>35.376621999999998</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -4019,7 +4005,7 @@
         <v>7.5190000000000001</v>
       </c>
       <c r="B115">
-        <v>16.622786000000001</v>
+        <v>36.793866999999999</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -4027,7 +4013,7 @@
         <v>7.2720000000000002</v>
       </c>
       <c r="B116">
-        <v>15.267984999999999</v>
+        <v>35.448787000000003</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -4035,7 +4021,7 @@
         <v>6.8390000000000004</v>
       </c>
       <c r="B117">
-        <v>14.674576999999999</v>
+        <v>35.034438000000002</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4043,7 +4029,7 @@
         <v>6.5880000000000001</v>
       </c>
       <c r="B118">
-        <v>14.487057</v>
+        <v>34.835835000000003</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -4051,7 +4037,7 @@
         <v>6.28</v>
       </c>
       <c r="B119">
-        <v>14.396571</v>
+        <v>34.736558000000002</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4059,7 +4045,7 @@
         <v>6.04</v>
       </c>
       <c r="B120">
-        <v>14.730378999999999</v>
+        <v>35.101210999999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -4067,7 +4053,7 @@
         <v>6.2839999999999998</v>
       </c>
       <c r="B121">
-        <v>16.754971999999999</v>
+        <v>36.653607999999998</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -4075,7 +4061,7 @@
         <v>13.2</v>
       </c>
       <c r="B122">
-        <v>32.339326</v>
+        <v>46.855691999999998</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -4083,7 +4069,7 @@
         <v>18.670000000000002</v>
       </c>
       <c r="B123">
-        <v>22.872769000000002</v>
+        <v>44.279961</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -4091,7 +4077,7 @@
         <v>17.88</v>
       </c>
       <c r="B124">
-        <v>22.200403000000001</v>
+        <v>43.305872000000001</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -4099,7 +4085,7 @@
         <v>12.14</v>
       </c>
       <c r="B125">
-        <v>24.637426000000001</v>
+        <v>46.328422000000003</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -4107,7 +4093,7 @@
         <v>10.73</v>
       </c>
       <c r="B126">
-        <v>17.742018999999999</v>
+        <v>38.957873999999997</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -4115,7 +4101,7 @@
         <v>9.4329999999999998</v>
       </c>
       <c r="B127">
-        <v>15.926892</v>
+        <v>36.517251000000002</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -4123,7 +4109,7 @@
         <v>8.5839999999999996</v>
       </c>
       <c r="B128">
-        <v>17.527177999999999</v>
+        <v>38.865802000000002</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -4131,7 +4117,7 @@
         <v>9.6349999999999998</v>
       </c>
       <c r="B129">
-        <v>19.081810999999998</v>
+        <v>38.906543999999997</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -4139,7 +4125,7 @@
         <v>11.2</v>
       </c>
       <c r="B130">
-        <v>18.000412000000001</v>
+        <v>37.796802</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -4147,7 +4133,7 @@
         <v>24.47</v>
       </c>
       <c r="B131">
-        <v>27.767747</v>
+        <v>45.30236</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -4155,7 +4141,7 @@
         <v>31.62</v>
       </c>
       <c r="B132">
-        <v>33.099713999999999</v>
+        <v>49.778106999999999</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -4163,7 +4149,7 @@
         <v>32.1</v>
       </c>
       <c r="B133">
-        <v>30.097535000000001</v>
+        <v>51.517387999999997</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -4171,7 +4157,7 @@
         <v>56.63</v>
       </c>
       <c r="B134">
-        <v>62.680579000000002</v>
+        <v>68.742957000000004</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -4179,7 +4165,7 @@
         <v>28.7</v>
       </c>
       <c r="B135">
-        <v>48.033889000000002</v>
+        <v>65.943427</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -4187,7 +4173,7 @@
         <v>20.149999999999999</v>
       </c>
       <c r="B136">
-        <v>24.589378</v>
+        <v>44.760184000000002</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -4195,7 +4181,7 @@
         <v>12.82</v>
       </c>
       <c r="B137">
-        <v>20.343598</v>
+        <v>40.917422999999999</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -4203,7 +4189,7 @@
         <v>11.69</v>
       </c>
       <c r="B138">
-        <v>17.079781000000001</v>
+        <v>37.635119000000003</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -4211,7 +4197,7 @@
         <v>9.7469999999999999</v>
       </c>
       <c r="B139">
-        <v>16.311254999999999</v>
+        <v>37.003504999999997</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -4219,7 +4205,7 @@
         <v>9.0519999999999996</v>
       </c>
       <c r="B140">
-        <v>15.94478</v>
+        <v>36.660243000000001</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -4227,7 +4213,7 @@
         <v>8.7750000000000004</v>
       </c>
       <c r="B141">
-        <v>15.352247</v>
+        <v>35.816930999999997</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -4235,7 +4221,7 @@
         <v>8.0920000000000005</v>
       </c>
       <c r="B142">
-        <v>15.189757999999999</v>
+        <v>35.651110000000003</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -4243,7 +4229,7 @@
         <v>8.0449999999999999</v>
       </c>
       <c r="B143">
-        <v>16.508329</v>
+        <v>37.060870999999999</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -4251,7 +4237,7 @@
         <v>8.6609999999999996</v>
       </c>
       <c r="B144">
-        <v>15.068680000000001</v>
+        <v>35.41442</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -4259,7 +4245,7 @@
         <v>17.190000000000001</v>
       </c>
       <c r="B145">
-        <v>28.373267999999999</v>
+        <v>45.06991</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -4267,7 +4253,7 @@
         <v>14.48</v>
       </c>
       <c r="B146">
-        <v>19.212078000000002</v>
+        <v>39.951363000000001</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -4275,7 +4261,7 @@
         <v>11.44</v>
       </c>
       <c r="B147">
-        <v>18.802403000000002</v>
+        <v>40.544052999999998</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -4283,7 +4269,7 @@
         <v>12.02</v>
       </c>
       <c r="B148">
-        <v>17.181678999999999</v>
+        <v>37.828771000000003</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -4291,7 +4277,7 @@
         <v>10.47</v>
       </c>
       <c r="B149">
-        <v>16.426054000000001</v>
+        <v>37.096761000000001</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -4299,7 +4285,7 @@
         <v>9.2490000000000006</v>
       </c>
       <c r="B150">
-        <v>17.206742999999999</v>
+        <v>37.227283999999997</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -4307,7 +4293,7 @@
         <v>9.1869999999999994</v>
       </c>
       <c r="B151">
-        <v>15.472419</v>
+        <v>35.920589999999997</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -4315,7 +4301,7 @@
         <v>13.35</v>
       </c>
       <c r="B152">
-        <v>20.213607</v>
+        <v>39.186276999999997</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -4323,7 +4309,7 @@
         <v>22.87</v>
       </c>
       <c r="B153">
-        <v>18.792280999999999</v>
+        <v>39.945735999999997</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -4331,7 +4317,7 @@
         <v>15.78</v>
       </c>
       <c r="B154">
-        <v>22.217236</v>
+        <v>44.318263999999999</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -4339,7 +4325,7 @@
         <v>13.41</v>
       </c>
       <c r="B155">
-        <v>19.163105000000002</v>
+        <v>40.644491000000002</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -4347,7 +4333,7 @@
         <v>11.75</v>
       </c>
       <c r="B156">
-        <v>17.022409</v>
+        <v>37.776972999999998</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -4355,7 +4341,7 @@
         <v>10.26</v>
       </c>
       <c r="B157">
-        <v>16.281095000000001</v>
+        <v>36.994905000000003</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -4363,7 +4349,7 @@
         <v>9.343</v>
       </c>
       <c r="B158">
-        <v>15.743688000000001</v>
+        <v>36.366224000000003</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -4371,7 +4357,7 @@
         <v>8.6010000000000009</v>
       </c>
       <c r="B159">
-        <v>17.935112</v>
+        <v>37.332890999999996</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -4379,7 +4365,7 @@
         <v>8.0939999999999994</v>
       </c>
       <c r="B160">
-        <v>15.156741</v>
+        <v>35.600717000000003</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -4387,7 +4373,7 @@
         <v>7.742</v>
       </c>
       <c r="B161">
-        <v>14.983714000000001</v>
+        <v>35.416809000000001</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -4395,7 +4381,7 @@
         <v>7.14</v>
       </c>
       <c r="B162">
-        <v>14.859143</v>
+        <v>35.271951999999999</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -4403,7 +4389,7 @@
         <v>6.907</v>
       </c>
       <c r="B163">
-        <v>14.696298000000001</v>
+        <v>35.076780999999997</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -4411,7 +4397,7 @@
         <v>6.7610000000000001</v>
       </c>
       <c r="B164">
-        <v>14.604498</v>
+        <v>34.972887999999998</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -4419,7 +4405,7 @@
         <v>6.4779999999999998</v>
       </c>
       <c r="B165">
-        <v>14.735386</v>
+        <v>34.94538</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -4427,7 +4413,7 @@
         <v>6.3949999999999996</v>
       </c>
       <c r="B166">
-        <v>15.981406</v>
+        <v>35.228124999999999</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -4435,7 +4421,7 @@
         <v>6.7830000000000004</v>
       </c>
       <c r="B167">
-        <v>17.475708000000001</v>
+        <v>35.733058</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -4443,7 +4429,7 @@
         <v>7.23</v>
       </c>
       <c r="B168">
-        <v>15.872622</v>
+        <v>35.366830999999998</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -4451,7 +4437,7 @@
         <v>10.64</v>
       </c>
       <c r="B169">
-        <v>21.198896999999999</v>
+        <v>37.466096</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -4459,7 +4445,7 @@
         <v>59.55</v>
       </c>
       <c r="B170">
-        <v>49.116664</v>
+        <v>47.385845000000003</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -4467,7 +4453,7 @@
         <v>35.39</v>
       </c>
       <c r="B171">
-        <v>50.054895000000002</v>
+        <v>66.105253000000005</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -4475,7 +4461,7 @@
         <v>20</v>
       </c>
       <c r="B172">
-        <v>26.948329000000001</v>
+        <v>46.971499999999999</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -4483,7 +4469,7 @@
         <v>17.3</v>
       </c>
       <c r="B173">
-        <v>20.642552999999999</v>
+        <v>40.816246999999997</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -4491,7 +4477,7 @@
         <v>76.989999999999995</v>
       </c>
       <c r="B174">
-        <v>56.938355000000001</v>
+        <v>51.422756</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -4499,7 +4485,7 @@
         <v>66.66</v>
       </c>
       <c r="B175">
-        <v>106.712918</v>
+        <v>100.484819</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -4507,7 +4493,7 @@
         <v>31.58</v>
       </c>
       <c r="B176">
-        <v>51.425097999999998</v>
+        <v>66.121297999999996</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -4515,7 +4501,7 @@
         <v>21.68</v>
       </c>
       <c r="B177">
-        <v>25.435780999999999</v>
+        <v>45.570487999999997</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -4523,7 +4509,7 @@
         <v>18.170000000000002</v>
       </c>
       <c r="B178">
-        <v>20.431488999999999</v>
+        <v>41.168222999999998</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -4531,7 +4517,7 @@
         <v>16.77</v>
       </c>
       <c r="B179">
-        <v>18.992622999999998</v>
+        <v>39.770088000000001</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -4539,7 +4525,7 @@
         <v>20.67</v>
       </c>
       <c r="B180">
-        <v>25.894487000000002</v>
+        <v>42.447209000000001</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -4547,7 +4533,7 @@
         <v>22.52</v>
       </c>
       <c r="B181">
-        <v>22.314302000000001</v>
+        <v>42.390293</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -4555,7 +4541,7 @@
         <v>37.03</v>
       </c>
       <c r="B182">
-        <v>24.571836000000001</v>
+        <v>43.731372999999998</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -4563,7 +4549,7 @@
         <v>88.54</v>
       </c>
       <c r="B183">
-        <v>74.565076000000005</v>
+        <v>68.478391999999999</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -4571,7 +4557,7 @@
         <v>45.18</v>
       </c>
       <c r="B184">
-        <v>63.318607999999998</v>
+        <v>86.096029000000001</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -4579,7 +4565,7 @@
         <v>33.22</v>
       </c>
       <c r="B185">
-        <v>37.523229000000001</v>
+        <v>54.252800000000001</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -4587,7 +4573,7 @@
         <v>25.97</v>
       </c>
       <c r="B186">
-        <v>29.063148999999999</v>
+        <v>47.842506</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -4595,7 +4581,7 @@
         <v>22.97</v>
       </c>
       <c r="B187">
-        <v>24.212510999999999</v>
+        <v>44.677999999999997</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -4603,7 +4589,7 @@
         <v>21.25</v>
       </c>
       <c r="B188">
-        <v>21.776001999999998</v>
+        <v>42.499043999999998</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -4611,7 +4597,7 @@
         <v>18.87</v>
       </c>
       <c r="B189">
-        <v>20.421855000000001</v>
+        <v>41.139722999999996</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -4619,7 +4605,7 @@
         <v>16.8</v>
       </c>
       <c r="B190">
-        <v>19.388248000000001</v>
+        <v>40.176741999999997</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -4627,7 +4613,7 @@
         <v>19.350000000000001</v>
       </c>
       <c r="B191">
-        <v>19.382878000000002</v>
+        <v>39.889935999999999</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -4635,7 +4621,7 @@
         <v>38.07</v>
       </c>
       <c r="B192">
-        <v>40.177036999999999</v>
+        <v>48.450811999999999</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -4643,7 +4629,7 @@
         <v>36.07</v>
       </c>
       <c r="B193">
-        <v>42.390137000000003</v>
+        <v>53.178980000000003</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -4651,7 +4637,7 @@
         <v>27.62</v>
       </c>
       <c r="B194">
-        <v>29.586482</v>
+        <v>47.944871999999997</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -4659,7 +4645,7 @@
         <v>29.03</v>
       </c>
       <c r="B195">
-        <v>32.822153</v>
+        <v>47.079645999999997</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -4667,7 +4653,7 @@
         <v>26.62</v>
       </c>
       <c r="B196">
-        <v>26.200419</v>
+        <v>45.173982000000002</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -4675,7 +4661,7 @@
         <v>22.38</v>
       </c>
       <c r="B197">
-        <v>24.927012000000001</v>
+        <v>43.849463999999998</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -4683,7 +4669,7 @@
         <v>25.32</v>
       </c>
       <c r="B198">
-        <v>23.957704</v>
+        <v>44.947482999999998</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -4691,7 +4677,7 @@
         <v>36.19</v>
       </c>
       <c r="B199">
-        <v>24.690732000000001</v>
+        <v>44.751268000000003</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -4699,7 +4685,7 @@
         <v>25.58</v>
       </c>
       <c r="B200">
-        <v>28.612728000000001</v>
+        <v>48.562963000000003</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -4707,7 +4693,7 @@
         <v>21.41</v>
       </c>
       <c r="B201">
-        <v>22.755281</v>
+        <v>43.166899000000001</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -4715,7 +4701,7 @@
         <v>20</v>
       </c>
       <c r="B202">
-        <v>22.766876</v>
+        <v>41.993403999999998</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -4723,7 +4709,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="B203">
-        <v>23.086162999999999</v>
+        <v>41.885694000000001</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -4731,7 +4717,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="B204">
-        <v>20.299423999999998</v>
+        <v>40.925930999999999</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -4739,7 +4725,7 @@
         <v>18.54</v>
       </c>
       <c r="B205">
-        <v>19.721883999999999</v>
+        <v>40.227930999999998</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -4747,7 +4733,7 @@
         <v>17.29</v>
       </c>
       <c r="B206">
-        <v>19.209903000000001</v>
+        <v>39.881247000000002</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -4755,7 +4741,7 @@
         <v>15.99</v>
       </c>
       <c r="B207">
-        <v>18.717841</v>
+        <v>39.328076000000003</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -4763,7 +4749,7 @@
         <v>15.33</v>
       </c>
       <c r="B208">
-        <v>19.075751</v>
+        <v>39.063082000000001</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -4771,7 +4757,7 @@
         <v>14.81</v>
       </c>
       <c r="B209">
-        <v>17.890563</v>
+        <v>38.438327999999998</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -4779,7 +4765,7 @@
         <v>35.64</v>
       </c>
       <c r="B210">
-        <v>18.104814000000001</v>
+        <v>38.403841999999997</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -4787,7 +4773,7 @@
         <v>99.21</v>
       </c>
       <c r="B211">
-        <v>111.06427600000001</v>
+        <v>81.429806999999997</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -4795,7 +4781,7 @@
         <v>63.44</v>
       </c>
       <c r="B212">
-        <v>90.604282999999995</v>
+        <v>98.804135000000002</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -4803,7 +4789,7 @@
         <v>38.36</v>
       </c>
       <c r="B213">
-        <v>49.026992</v>
+        <v>63.838752999999997</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -4811,7 +4797,7 @@
         <v>25.95</v>
       </c>
       <c r="B214">
-        <v>30.196202</v>
+        <v>48.938994000000001</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -4819,7 +4805,7 @@
         <v>19.98</v>
       </c>
       <c r="B215">
-        <v>22.864225000000001</v>
+        <v>42.941209999999998</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -4827,7 +4813,7 @@
         <v>16.57</v>
       </c>
       <c r="B216">
-        <v>20.570868999999998</v>
+        <v>40.966262999999998</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -4835,7 +4821,7 @@
         <v>16.63</v>
       </c>
       <c r="B217">
-        <v>19.085861000000001</v>
+        <v>39.414673000000001</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -4843,7 +4829,7 @@
         <v>15.82</v>
       </c>
       <c r="B218">
-        <v>19.158090000000001</v>
+        <v>39.535600000000002</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -4851,7 +4837,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="B219">
-        <v>18.667255999999998</v>
+        <v>39.073608</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -4859,7 +4845,7 @@
         <v>18.88</v>
       </c>
       <c r="B220">
-        <v>20.625440000000001</v>
+        <v>40.102696000000002</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -4867,7 +4853,7 @@
         <v>21.18</v>
       </c>
       <c r="B221">
-        <v>25.875995</v>
+        <v>44.607579000000001</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -4875,7 +4861,7 @@
         <v>22.95</v>
       </c>
       <c r="B222">
-        <v>22.09881</v>
+        <v>41.711170000000003</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -4883,7 +4869,7 @@
         <v>30.86</v>
       </c>
       <c r="B223">
-        <v>22.094884</v>
+        <v>42.051369000000001</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -4891,7 +4877,7 @@
         <v>48.28</v>
       </c>
       <c r="B224">
-        <v>34.437112999999997</v>
+        <v>51.241179000000002</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -4899,7 +4885,7 @@
         <v>69.819999999999993</v>
       </c>
       <c r="B225">
-        <v>54.759273</v>
+        <v>66.194816000000003</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -4907,7 +4893,7 @@
         <v>87.5</v>
       </c>
       <c r="B226">
-        <v>64.775615999999999</v>
+        <v>74.273633000000004</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -4915,7 +4901,7 @@
         <v>111.7</v>
       </c>
       <c r="B227">
-        <v>106.124076</v>
+        <v>100.48225100000001</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -4923,7 +4909,7 @@
         <v>128.9</v>
       </c>
       <c r="B228">
-        <v>129.565619</v>
+        <v>135.51945799999999</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -4931,7 +4917,7 @@
         <v>84.33</v>
       </c>
       <c r="B229">
-        <v>104.76808699999999</v>
+        <v>124.775246</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -4939,7 +4925,7 @@
         <v>58.66</v>
       </c>
       <c r="B230">
-        <v>68.299036999999998</v>
+        <v>79.219370999999995</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -4947,7 +4933,7 @@
         <v>66.55</v>
       </c>
       <c r="B231">
-        <v>62.722107000000001</v>
+        <v>65.576750000000004</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -4955,7 +4941,7 @@
         <v>101.4</v>
       </c>
       <c r="B232">
-        <v>68.075366000000002</v>
+        <v>73.037042</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -4963,7 +4949,7 @@
         <v>100.9</v>
       </c>
       <c r="B233">
-        <v>129.08335500000001</v>
+        <v>127.243791</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -4971,7 +4957,7 @@
         <v>61.25</v>
       </c>
       <c r="B234">
-        <v>79.906823000000003</v>
+        <v>98.354769000000005</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -4979,7 +4965,7 @@
         <v>46.7</v>
       </c>
       <c r="B235">
-        <v>50.098587999999999</v>
+        <v>62.629700999999997</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -4987,7 +4973,7 @@
         <v>39.46</v>
       </c>
       <c r="B236">
-        <v>39.018250999999999</v>
+        <v>53.954655000000002</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -4995,7 +4981,7 @@
         <v>32.78</v>
       </c>
       <c r="B237">
-        <v>33.089421000000002</v>
+        <v>50.073306000000002</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -5003,7 +4989,7 @@
         <v>29.13</v>
       </c>
       <c r="B238">
-        <v>27.298566000000001</v>
+        <v>46.526896000000001</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -5011,7 +4997,7 @@
         <v>27.66</v>
       </c>
       <c r="B239">
-        <v>25.217237000000001</v>
+        <v>44.809570999999998</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -5019,7 +5005,7 @@
         <v>27.16</v>
       </c>
       <c r="B240">
-        <v>25.929822000000001</v>
+        <v>45.317680000000003</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -5027,7 +5013,7 @@
         <v>25.62</v>
       </c>
       <c r="B241">
-        <v>24.176335999999999</v>
+        <v>43.856673999999998</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -5035,7 +5021,7 @@
         <v>23.95</v>
       </c>
       <c r="B242">
-        <v>23.781780000000001</v>
+        <v>43.471448000000002</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -5043,7 +5029,7 @@
         <v>22.13</v>
       </c>
       <c r="B243">
-        <v>22.269815999999999</v>
+        <v>42.253985999999998</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -5051,7 +5037,7 @@
         <v>20.28</v>
       </c>
       <c r="B244">
-        <v>21.235496000000001</v>
+        <v>41.374943000000002</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -5059,7 +5045,7 @@
         <v>18.579999999999998</v>
       </c>
       <c r="B245">
-        <v>20.269074</v>
+        <v>40.526065000000003</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -5067,7 +5053,7 @@
         <v>18.11</v>
       </c>
       <c r="B246">
-        <v>20.832409999999999</v>
+        <v>40.040365999999999</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -5075,7 +5061,7 @@
         <v>18.05</v>
       </c>
       <c r="B247">
-        <v>22.412541999999998</v>
+        <v>40.189101999999998</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -5083,7 +5069,7 @@
         <v>18.260000000000002</v>
       </c>
       <c r="B248">
-        <v>19.325652000000002</v>
+        <v>39.518112000000002</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -5091,7 +5077,7 @@
         <v>18.13</v>
       </c>
       <c r="B249">
-        <v>19.312556000000001</v>
+        <v>39.623603000000003</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -5099,7 +5085,7 @@
         <v>19.88</v>
       </c>
       <c r="B250">
-        <v>19.302864</v>
+        <v>39.570489999999999</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -5107,7 +5093,7 @@
         <v>21.32</v>
       </c>
       <c r="B251">
-        <v>20.303100000000001</v>
+        <v>40.448540000000001</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -5115,7 +5101,7 @@
         <v>21.32</v>
       </c>
       <c r="B252">
-        <v>20.896766</v>
+        <v>40.961053</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -5123,7 +5109,7 @@
         <v>21.71</v>
       </c>
       <c r="B253">
-        <v>21.198114</v>
+        <v>41.032361000000002</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -5131,7 +5117,7 @@
         <v>25.15</v>
       </c>
       <c r="B254">
-        <v>23.986953</v>
+        <v>41.962448999999999</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -5139,7 +5125,7 @@
         <v>24.38</v>
       </c>
       <c r="B255">
-        <v>23.564564000000001</v>
+        <v>42.993172999999999</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -5147,7 +5133,7 @@
         <v>21.76</v>
       </c>
       <c r="B256">
-        <v>22.019902999999999</v>
+        <v>42.047353000000001</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -5155,7 +5141,7 @@
         <v>19.010000000000002</v>
       </c>
       <c r="B257">
-        <v>21.518484000000001</v>
+        <v>41.050652999999997</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -5163,7 +5149,7 @@
         <v>17.25</v>
       </c>
       <c r="B258">
-        <v>19.669502999999999</v>
+        <v>39.840794000000002</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -5171,7 +5157,7 @@
         <v>60.62</v>
       </c>
       <c r="B259">
-        <v>20.190342000000001</v>
+        <v>40.739525999999998</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -5179,7 +5165,7 @@
         <v>160.9</v>
       </c>
       <c r="B260">
-        <v>101.61994900000001</v>
+        <v>91.402851999999996</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -5187,7 +5173,7 @@
         <v>220.2</v>
       </c>
       <c r="B261">
-        <v>150.234104</v>
+        <v>179.411216</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -5195,7 +5181,7 @@
         <v>232.8</v>
       </c>
       <c r="B262">
-        <v>225.538768</v>
+        <v>255.41434599999999</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -5203,7 +5189,7 @@
         <v>178.9</v>
       </c>
       <c r="B263">
-        <v>179.04957899999999</v>
+        <v>221.55559099999999</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -5211,7 +5197,7 @@
         <v>114.5</v>
       </c>
       <c r="B264">
-        <v>119.173433</v>
+        <v>158.78882400000001</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -5219,7 +5205,7 @@
         <v>127.4</v>
       </c>
       <c r="B265">
-        <v>87.756079</v>
+        <v>101.928183</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -5227,7 +5213,7 @@
         <v>126.7</v>
       </c>
       <c r="B266">
-        <v>119.095572</v>
+        <v>134.27680599999999</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -5235,7 +5221,7 @@
         <v>139.5</v>
       </c>
       <c r="B267">
-        <v>106.139612</v>
+        <v>123.901718</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -5243,7 +5229,7 @@
         <v>111.4</v>
       </c>
       <c r="B268">
-        <v>142.60197400000001</v>
+        <v>148.620521</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -5251,7 +5237,7 @@
         <v>69.55</v>
       </c>
       <c r="B269">
-        <v>90.816824999999994</v>
+        <v>99.833399999999997</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -5259,7 +5245,7 @@
         <v>54.79</v>
       </c>
       <c r="B270">
-        <v>62.425024999999998</v>
+        <v>67.867666999999997</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -5267,7 +5253,7 @@
         <v>52.58</v>
       </c>
       <c r="B271">
-        <v>50.986230999999997</v>
+        <v>59.291947</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -5275,7 +5261,7 @@
         <v>66</v>
       </c>
       <c r="B272">
-        <v>53.555540000000001</v>
+        <v>60.247053999999999</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -5283,7 +5269,7 @@
         <v>91.42</v>
       </c>
       <c r="B273">
-        <v>66.070330999999996</v>
+        <v>70.573212999999996</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -5291,7 +5277,7 @@
         <v>104.7</v>
       </c>
       <c r="B274">
-        <v>94.282112999999995</v>
+        <v>97.452027000000001</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -5299,7 +5285,7 @@
         <v>74.81</v>
       </c>
       <c r="B275">
-        <v>92.377126000000004</v>
+        <v>101.702015</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -5307,7 +5293,7 @@
         <v>58.99</v>
       </c>
       <c r="B276">
-        <v>62.911983999999997</v>
+        <v>72.556576000000007</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -5315,7 +5301,7 @@
         <v>50.42</v>
       </c>
       <c r="B277">
-        <v>49.850915000000001</v>
+        <v>60.947263</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -5323,7 +5309,7 @@
         <v>44.56</v>
       </c>
       <c r="B278">
-        <v>42.664718999999998</v>
+        <v>56.045209999999997</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -5331,7 +5317,7 @@
         <v>42.51</v>
       </c>
       <c r="B279">
-        <v>37.780208999999999</v>
+        <v>52.545628999999998</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -5339,7 +5325,7 @@
         <v>42.84</v>
       </c>
       <c r="B280">
-        <v>36.393645999999997</v>
+        <v>51.878399000000002</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -5347,7 +5333,7 @@
         <v>49.6</v>
       </c>
       <c r="B281">
-        <v>37.912224999999999</v>
+        <v>53.473981000000002</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -5355,7 +5341,7 @@
         <v>52.67</v>
       </c>
       <c r="B282">
-        <v>41.626148999999998</v>
+        <v>57.100938999999997</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -5363,7 +5349,7 @@
         <v>45.33</v>
       </c>
       <c r="B283">
-        <v>41.324983000000003</v>
+        <v>58.361815999999997</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -5371,7 +5357,7 @@
         <v>36.83</v>
       </c>
       <c r="B284">
-        <v>35.161458000000003</v>
+        <v>53.391725000000001</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -5379,7 +5365,7 @@
         <v>33.24</v>
       </c>
       <c r="B285">
-        <v>29.782506999999999</v>
+        <v>48.491463000000003</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -5387,7 +5373,7 @@
         <v>31.39</v>
       </c>
       <c r="B286">
-        <v>27.552154000000002</v>
+        <v>46.852310000000003</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -5395,7 +5381,7 @@
         <v>28.85</v>
       </c>
       <c r="B287">
-        <v>26.870443000000002</v>
+        <v>45.878822</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -5403,7 +5389,7 @@
         <v>26.76</v>
       </c>
       <c r="B288">
-        <v>28.828199000000001</v>
+        <v>46.657274000000001</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -5411,7 +5397,7 @@
         <v>25.89</v>
       </c>
       <c r="B289">
-        <v>23.707328</v>
+        <v>43.521611999999998</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -5419,7 +5405,7 @@
         <v>29.22</v>
       </c>
       <c r="B290">
-        <v>34.713963999999997</v>
+        <v>50.014873999999999</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -5427,7 +5413,7 @@
         <v>30.08</v>
       </c>
       <c r="B291">
-        <v>27.455069000000002</v>
+        <v>45.072240000000001</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -5435,7 +5421,7 @@
         <v>27.33</v>
       </c>
       <c r="B292">
-        <v>25.361727999999999</v>
+        <v>44.880192000000001</v>
       </c>
     </row>
   </sheetData>
